--- a/data/trans_orig/P14A98-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A98-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BE7989F-A066-4B03-A6D2-161A1BB9C4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3367A6AE-45FA-45CB-B644-29594DB82799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A8D595B9-F233-436E-9EBF-88AF05053165}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{21CE3FC8-2DD8-4655-9F06-2247B1E33065}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="97">
   <si>
     <t>Población que recibe medicación o terapia por otra enfermedad 2 en 2012 (Tasa respuesta: 0,22%)</t>
   </si>
@@ -159,37 +159,37 @@
     <t>84,1%</t>
   </si>
   <si>
-    <t>21,65%</t>
+    <t>29,38%</t>
   </si>
   <si>
     <t>87,22%</t>
   </si>
   <si>
-    <t>49,25%</t>
+    <t>48,92%</t>
   </si>
   <si>
     <t>85,89%</t>
   </si>
   <si>
-    <t>57,67%</t>
+    <t>56,81%</t>
   </si>
   <si>
     <t>15,9%</t>
   </si>
   <si>
-    <t>78,35%</t>
+    <t>70,62%</t>
   </si>
   <si>
     <t>12,78%</t>
   </si>
   <si>
-    <t>50,75%</t>
+    <t>51,08%</t>
   </si>
   <si>
     <t>14,11%</t>
   </si>
   <si>
-    <t>42,33%</t>
+    <t>43,19%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -219,25 +219,31 @@
     <t>74,83%</t>
   </si>
   <si>
+    <t>23,89%</t>
+  </si>
+  <si>
     <t>63,75%</t>
   </si>
   <si>
     <t>87,39%</t>
   </si>
   <si>
-    <t>47,09%</t>
+    <t>48,33%</t>
   </si>
   <si>
     <t>25,17%</t>
   </si>
   <si>
+    <t>76,11%</t>
+  </si>
+  <si>
     <t>36,25%</t>
   </si>
   <si>
     <t>12,61%</t>
   </si>
   <si>
-    <t>52,91%</t>
+    <t>51,67%</t>
   </si>
   <si>
     <t>65,05%</t>
@@ -264,7 +270,7 @@
     <t>73,39%</t>
   </si>
   <si>
-    <t>19,34%</t>
+    <t>6,33%</t>
   </si>
   <si>
     <t>55,93%</t>
@@ -273,55 +279,55 @@
     <t>26,61%</t>
   </si>
   <si>
-    <t>80,66%</t>
+    <t>93,67%</t>
   </si>
   <si>
     <t>65,77%</t>
   </si>
   <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
   </si>
   <si>
     <t>78,0%</t>
   </si>
   <si>
-    <t>43,48%</t>
+    <t>39,32%</t>
   </si>
   <si>
     <t>71,64%</t>
   </si>
   <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
   </si>
   <si>
     <t>34,23%</t>
   </si>
   <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
   </si>
   <si>
     <t>22,0%</t>
   </si>
   <si>
-    <t>56,52%</t>
+    <t>60,68%</t>
   </si>
   <si>
     <t>28,36%</t>
   </si>
   <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
   </si>
 </sst>
 </file>
@@ -733,7 +739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A46EFD-350E-4F6A-A920-133ED3ABC785}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D365520-2DBD-4A1A-9CCB-FD1C00968092}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1772,7 +1778,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A5B351-E6BB-43B2-8C47-4E7324060EFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E191EC-7CCF-4CC5-A009-D252EC333211}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2209,7 +2215,7 @@
         <v>59</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>14</v>
@@ -2224,7 +2230,7 @@
         <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>16</v>
@@ -2236,10 +2242,10 @@
         <v>7169</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>14</v>
@@ -2257,13 +2263,13 @@
         <v>1035</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2278,7 +2284,7 @@
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -2287,13 +2293,13 @@
         <v>1035</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2361,7 +2367,7 @@
         <v>2016</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>17</v>
@@ -2391,10 +2397,10 @@
         <v>3363</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>14</v>
@@ -2412,7 +2418,7 @@
         <v>1084</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>17</v>
@@ -2442,13 +2448,13 @@
         <v>1084</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2531,7 +2537,7 @@
         <v>1052</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>17</v>
@@ -2546,10 +2552,10 @@
         <v>3683</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>14</v>
@@ -2582,7 +2588,7 @@
         <v>1336</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>17</v>
@@ -2597,13 +2603,13 @@
         <v>1336</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2671,13 +2677,13 @@
         <v>7723</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -2686,10 +2692,10 @@
         <v>8440</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>14</v>
@@ -2701,13 +2707,13 @@
         <v>16164</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2722,13 +2728,13 @@
         <v>4019</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -2737,13 +2743,13 @@
         <v>2381</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -2752,13 +2758,13 @@
         <v>6400</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14A98-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A98-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3367A6AE-45FA-45CB-B644-29594DB82799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8612E859-AA55-42B6-8209-6F9A2A4D82AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{21CE3FC8-2DD8-4655-9F06-2247B1E33065}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D9A8DED4-5C05-4DF2-A284-4308B359692D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="95">
   <si>
     <t>Población que recibe medicación o terapia por otra enfermedad 2 en 2012 (Tasa respuesta: 0,22%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -78,7 +78,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -99,7 +99,7 @@
     <t>44,41%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -126,7 +126,7 @@
     <t>75,28%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>68,14%</t>
@@ -138,9 +138,6 @@
     <t>76,2%</t>
   </si>
   <si>
-    <t>26,08%</t>
-  </si>
-  <si>
     <t>31,86%</t>
   </si>
   <si>
@@ -150,52 +147,49 @@
     <t>23,8%</t>
   </si>
   <si>
-    <t>73,92%</t>
-  </si>
-  <si>
     <t>Capitales</t>
   </si>
   <si>
     <t>84,1%</t>
   </si>
   <si>
-    <t>29,38%</t>
+    <t>34,18%</t>
   </si>
   <si>
     <t>87,22%</t>
   </si>
   <si>
-    <t>48,92%</t>
+    <t>48,07%</t>
   </si>
   <si>
     <t>85,89%</t>
   </si>
   <si>
-    <t>56,81%</t>
+    <t>63,09%</t>
   </si>
   <si>
     <t>15,9%</t>
   </si>
   <si>
-    <t>70,62%</t>
+    <t>65,82%</t>
   </si>
   <si>
     <t>12,78%</t>
   </si>
   <si>
-    <t>51,08%</t>
+    <t>51,93%</t>
   </si>
   <si>
     <t>14,11%</t>
   </si>
   <si>
-    <t>43,19%</t>
+    <t>36,91%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por otra enfermedad 2 en 2015 (Tasa respuesta: 0,32%)</t>
+    <t>Población que recibe medicación o terapia por otra enfermedad 2 en 2016 (Tasa respuesta: 0,32%)</t>
   </si>
   <si>
     <t>49,14%</t>
@@ -228,7 +222,7 @@
     <t>87,39%</t>
   </si>
   <si>
-    <t>48,33%</t>
+    <t>48,09%</t>
   </si>
   <si>
     <t>25,17%</t>
@@ -243,7 +237,7 @@
     <t>12,61%</t>
   </si>
   <si>
-    <t>51,67%</t>
+    <t>51,91%</t>
   </si>
   <si>
     <t>65,05%</t>
@@ -285,49 +279,49 @@
     <t>65,77%</t>
   </si>
   <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
   </si>
   <si>
     <t>78,0%</t>
   </si>
   <si>
-    <t>39,32%</t>
+    <t>36,79%</t>
   </si>
   <si>
     <t>71,64%</t>
   </si>
   <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
   </si>
   <si>
     <t>34,23%</t>
   </si>
   <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
   </si>
   <si>
     <t>22,0%</t>
   </si>
   <si>
-    <t>60,68%</t>
+    <t>63,21%</t>
   </si>
   <si>
     <t>28,36%</t>
   </si>
   <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
   </si>
 </sst>
 </file>
@@ -739,7 +733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D365520-2DBD-4A1A-9CCB-FD1C00968092}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94241D3A-27B2-41E1-8F99-42D7E788E820}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1337,7 +1331,7 @@
         <v>32</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>14</v>
@@ -1355,7 +1349,7 @@
         <v>983</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>17</v>
@@ -1376,7 +1370,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -1385,13 +1379,13 @@
         <v>983</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1447,7 +1441,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1516,7 +1510,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1614,10 +1608,10 @@
         <v>5201</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>14</v>
@@ -1629,10 +1623,10 @@
         <v>7264</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>14</v>
@@ -1644,10 +1638,10 @@
         <v>12465</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>14</v>
@@ -1665,13 +1659,13 @@
         <v>983</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -1680,13 +1674,13 @@
         <v>1064</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -1695,13 +1689,13 @@
         <v>2047</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1757,7 +1751,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1778,7 +1772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E191EC-7CCF-4CC5-A009-D252EC333211}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF34F3AD-02C6-42E8-B29E-A41EBAF4B326}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1795,7 +1789,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1908,7 +1902,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -1932,7 +1926,7 @@
         <v>816</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>17</v>
@@ -1974,7 +1968,7 @@
         <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -1983,7 +1977,7 @@
         <v>845</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>17</v>
@@ -2063,7 +2057,7 @@
         <v>18</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -2072,7 +2066,7 @@
         <v>1132</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>17</v>
@@ -2087,7 +2081,7 @@
         <v>1132</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>17</v>
@@ -2123,7 +2117,7 @@
         <v>1045</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>17</v>
@@ -2138,7 +2132,7 @@
         <v>2101</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>17</v>
@@ -2212,10 +2206,10 @@
         <v>3076</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>14</v>
@@ -2230,7 +2224,7 @@
         <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>16</v>
@@ -2242,10 +2236,10 @@
         <v>7169</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>14</v>
@@ -2263,13 +2257,13 @@
         <v>1035</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2284,7 +2278,7 @@
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -2293,13 +2287,13 @@
         <v>1035</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2367,7 +2361,7 @@
         <v>2016</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>17</v>
@@ -2397,10 +2391,10 @@
         <v>3363</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>14</v>
@@ -2418,7 +2412,7 @@
         <v>1084</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>17</v>
@@ -2439,7 +2433,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -2448,13 +2442,13 @@
         <v>1084</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2510,7 +2504,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2537,7 +2531,7 @@
         <v>1052</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>17</v>
@@ -2552,10 +2546,10 @@
         <v>3683</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>14</v>
@@ -2588,7 +2582,7 @@
         <v>1336</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>17</v>
@@ -2603,13 +2597,13 @@
         <v>1336</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2677,13 +2671,13 @@
         <v>7723</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -2692,10 +2686,10 @@
         <v>8440</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>14</v>
@@ -2707,13 +2701,13 @@
         <v>16164</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2728,13 +2722,13 @@
         <v>4019</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -2743,13 +2737,13 @@
         <v>2381</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -2758,13 +2752,13 @@
         <v>6400</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2820,7 +2814,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
